--- a/font-creation/font.xlsx
+++ b/font-creation/font.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pxltbl\font-creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F521D0-F1AF-42CA-A114-66935D85C7AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF45FF-4F27-4E02-8A1E-7745EFED60AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{83CA9E88-14F9-4152-9C49-D911AA82C777}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{83CA9E88-14F9-4152-9C49-D911AA82C777}"/>
   </bookViews>
   <sheets>
     <sheet name="lowercase" sheetId="1" r:id="rId1"/>
@@ -5353,8 +5353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D7397A-9970-49C2-916F-49D2F80ADB8D}">
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="H243" sqref="H243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R234" sqref="K1:R234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10286,8 +10286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17CDAB9-CC64-4CA1-B76B-C6A4F867F1E1}">
   <dimension ref="A1:R297"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54:Q54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12432,7 +12432,9 @@
         <v>1</v>
       </c>
       <c r="C109" s="1"/>
-      <c r="D109" s="15"/>
+      <c r="D109" s="15">
+        <v>1</v>
+      </c>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -12456,15 +12458,11 @@
         <v>4</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="17">
-        <v>1</v>
-      </c>
+      <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="17">
-        <v>1</v>
-      </c>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
@@ -12473,13 +12471,9 @@
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="7">
-        <v>1</v>
-      </c>
+      <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="7">
-        <v>1</v>
-      </c>
+      <c r="G112" s="7"/>
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12490,9 +12484,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="7">
-        <v>1</v>
-      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="8"/>
     </row>
@@ -12502,14 +12494,12 @@
         <v>32</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7">
-        <v>1</v>
-      </c>
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
+      <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="7">
-        <v>1</v>
-      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12524,9 +12514,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="8">
-        <v>1</v>
-      </c>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
@@ -12549,23 +12537,23 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9" t="str">
         <f>DEC2HEX($B116*D116+$B115*D115+$B114*D114+$B113*D113+$B112*D112+$B111*D111+$B110*D110+$B109*D109)</f>
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E117" s="9" t="str">
         <f>DEC2HEX($B116*E116+$B115*E115+$B114*E114+$B113*E113+$B112*E112+$B111*E111+$B110*E110+$B109*E109)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F117" s="9" t="str">
         <f>DEC2HEX($B116*F116+$B115*F115+$B114*F114+$B113*F113+$B112*F112+$B111*F111+$B110*F110+$B109*F109)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G117" s="9" t="str">
         <f>DEC2HEX($B116*G116+$B115*G115+$B114*G114+$B113*G113+$B112*G112+$B111*G111+$B110*G110+$B109*G109)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H117" s="10" t="str">
         <f>DEC2HEX($B116*H116+$B115*H115+$B114*H114+$B113*H113+$B112*H112+$B111*H111+$B110*H110+$B109*H109)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K117" t="str">
         <f>B117</f>
@@ -12573,23 +12561,23 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" ref="M117:Q117" si="12">D117</f>
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="N117" t="str">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O117" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P117" t="str">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="12"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R117" t="str">
         <f>A109</f>
@@ -12665,9 +12653,7 @@
       <c r="G122" s="7">
         <v>1</v>
       </c>
-      <c r="H122" s="8">
-        <v>1</v>
-      </c>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
@@ -12730,7 +12716,7 @@
       </c>
       <c r="H126" s="10" t="str">
         <f>DEC2HEX($B125*H125+$B124*H124+$B123*H123+$B122*H122+$B121*H121+$B120*H120+$B119*H119+$B118*H118)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K126" t="str">
         <f>B126</f>
@@ -12754,7 +12740,7 @@
       </c>
       <c r="Q126" t="str">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R126" t="str">
         <f>A118</f>
@@ -16220,8 +16206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EB46F6-0DC9-45D9-8460-E0A787360AF2}">
   <dimension ref="A1:R234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17244,21 +17230,11 @@
         <v>1</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="15">
-        <v>1</v>
-      </c>
-      <c r="E55" s="15">
-        <v>1</v>
-      </c>
-      <c r="F55" s="15">
-        <v>1</v>
-      </c>
-      <c r="G55" s="15">
-        <v>1</v>
-      </c>
-      <c r="H55" s="16">
-        <v>1</v>
-      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
@@ -17367,23 +17343,23 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="str">
         <f>DEC2HEX($B62*D62+$B61*D61+$B60*D60+$B59*D59+$B58*D58+$B57*D57+$B56*D56+$B55*D55)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="9" t="str">
         <f>DEC2HEX($B62*E62+$B61*E61+$B60*E60+$B59*E59+$B58*E58+$B57*E57+$B56*E56+$B55*E55)</f>
-        <v>6D</v>
+        <v>6C</v>
       </c>
       <c r="F63" s="9" t="str">
         <f>DEC2HEX($B62*F62+$B61*F61+$B60*F60+$B59*F59+$B58*F58+$B57*F57+$B56*F56+$B55*F55)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63" s="9" t="str">
         <f>DEC2HEX($B62*G62+$B61*G61+$B60*G60+$B59*G59+$B58*G58+$B57*G57+$B56*G56+$B55*G55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="10" t="str">
         <f>DEC2HEX($B62*H62+$B61*H61+$B60*H60+$B59*H59+$B58*H58+$B57*H57+$B56*H56+$B55*H55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="str">
         <f>B63</f>
@@ -17391,23 +17367,23 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" ref="M63:Q63" si="6">D63</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="6"/>
-        <v>6D</v>
+        <v>6C</v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P63" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="str">
         <f>A55</f>
